--- a/library_backend/backend-media/Templates/faculty.xlsx
+++ b/library_backend/backend-media/Templates/faculty.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
     <t>PSRN</t>
   </si>
@@ -28,43 +28,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>P3837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakesha Chandra Dash </t>
-  </si>
-  <si>
-    <t>Assistant Professor,(OC)-Gr-I</t>
-  </si>
-  <si>
-    <t>P3840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narlagiri Shilpa </t>
-  </si>
-  <si>
-    <t>Instructor (OC)</t>
-  </si>
-  <si>
-    <t>P3846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reddy Rani Vangimalla </t>
-  </si>
-  <si>
-    <t>P3847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biswadip Shome </t>
-  </si>
-  <si>
-    <t>Professor of Practice</t>
-  </si>
-  <si>
-    <t>P3848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donald Johnson A </t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -72,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +48,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -216,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -227,7 +197,7 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -236,7 +206,7 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -245,16 +215,19 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -570,9 +543,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="26.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2451,54 +2424,54 @@
         <v>3</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
-      <c r="A377" s="12" t="s">
-        <v>11</v>
+      <c r="A377" s="14" t="s">
+        <v>3</v>
       </c>
-      <c r="B377" s="12" t="s">
-        <v>12</v>
+      <c r="B377" s="14" t="s">
+        <v>3</v>
       </c>
-      <c r="C377" s="12" t="s">
-        <v>13</v>
+      <c r="C377" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
       <c r="A378" s="13" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
